--- a/public/formats/Formato_Areas.xlsx
+++ b/public/formats/Formato_Areas.xlsx
@@ -146,15 +146,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -505,25 +506,25 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
